--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE319A-B29A-4CD7-B54A-BCC7F80C0BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA788BA-ADEB-453F-9F3F-95F145B163BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -411,10 +411,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S2aH4,S2aH5,S1aH3,S3aH3,S2aH3,S1aH4,S3aH4,S3aH5</t>
-  </si>
-  <si>
-    <t>S1aH6,S2aH1,S3aH7,S1aH2,S1aH7,S3aH6,S2aH2,S3aH2,S3aH8,S2aH6,S3aH1,S2aH8,S1aH1,S2aH7,S1aH8</t>
+    <t>S2aH3,S3aH4,S1aH5,S2aH4,S2aH5,S1aH4,S3aH3,S1aH3,S3aH5</t>
+  </si>
+  <si>
+    <t>S3aH8,S1aH6,S2aH8,S2aH6,S3aH1,S2aH2,S1aH2,S1aH7,S3aH6,S3aH2,S1aH8,S1aH1,S2aH7,S2aH1,S3aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -986,7 +986,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH6,S2aH1,S3aH7,S1aH2,S1aH7,S3aH6,S2aH2,S3aH2,S3aH8,S2aH6,S3aH1,S2aH8,S1aH1,S2aH7,S1aH8</v>
+        <v>S3aH8,S1aH6,S2aH8,S2aH6,S3aH1,S2aH2,S1aH2,S1aH7,S3aH6,S3aH2,S1aH8,S1aH1,S2aH7,S2aH1,S3aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S2aH4,S2aH5,S1aH3,S3aH3,S2aH3,S1aH4,S3aH4,S3aH5</v>
+        <v>S2aH3,S3aH4,S1aH5,S2aH4,S2aH5,S1aH4,S3aH3,S1aH3,S3aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4C6660-4E36-48D4-8045-F446142CCC1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F2795-BB3F-4CFB-A15C-06C76DAB0195}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1745,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A14483C-6A8D-4214-99C2-415037C7D421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEDDDE1-8D17-4BCC-BF0A-EF2049A02A54}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1827,7 +1827,7 @@
         <v>81</v>
       </c>
       <c r="N4">
-        <v>0.35506511836787064</v>
+        <v>0.35506511836787058</v>
       </c>
       <c r="O4" t="s">
         <v>130</v>
@@ -1859,10 +1859,10 @@
         <v>119</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557838</v>
+        <v>0.6684031564765508</v>
       </c>
       <c r="O5" t="s">
         <v>130</v>
@@ -1894,10 +1894,10 @@
         <v>119</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.66840315647655102</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O6" t="s">
         <v>130</v>
@@ -2455,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B736FE5-3B16-4E5D-A553-C30A8B9B7694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86657E5F-254B-425A-9EEA-F9FF3E28F6A0}">
   <dimension ref="B2:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA788BA-ADEB-453F-9F3F-95F145B163BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C29115-3FF4-4BCE-911A-0CA4F96D7705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -411,10 +411,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH3,S3aH4,S1aH5,S2aH4,S2aH5,S1aH4,S3aH3,S1aH3,S3aH5</t>
-  </si>
-  <si>
-    <t>S3aH8,S1aH6,S2aH8,S2aH6,S3aH1,S2aH2,S1aH2,S1aH7,S3aH6,S3aH2,S1aH8,S1aH1,S2aH7,S2aH1,S3aH7</t>
+    <t>S1aH3,S1aH5,S2aH4,S2aH5,S2aH3,S3aH5,S3aH4,S1aH4,S3aH3</t>
+  </si>
+  <si>
+    <t>S1aH2,S1aH7,S3aH6,S1aH6,S1aH8,S1aH1,S2aH7,S3aH8,S2aH6,S3aH1,S3aH2,S2aH1,S3aH7,S2aH8,S2aH2</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -986,7 +986,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S1aH6,S2aH8,S2aH6,S3aH1,S2aH2,S1aH2,S1aH7,S3aH6,S3aH2,S1aH8,S1aH1,S2aH7,S2aH1,S3aH7</v>
+        <v>S1aH2,S1aH7,S3aH6,S1aH6,S1aH8,S1aH1,S2aH7,S3aH8,S2aH6,S3aH1,S3aH2,S2aH1,S3aH7,S2aH8,S2aH2</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH3,S3aH4,S1aH5,S2aH4,S2aH5,S1aH4,S3aH3,S1aH3,S3aH5</v>
+        <v>S1aH3,S1aH5,S2aH4,S2aH5,S2aH3,S3aH5,S3aH4,S1aH4,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F2795-BB3F-4CFB-A15C-06C76DAB0195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF43A2D-EAEB-465E-9A0D-535F13A06229}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1745,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEDDDE1-8D17-4BCC-BF0A-EF2049A02A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0E5A86-3872-46B6-BB5C-5757C651C7CA}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1824,10 +1824,10 @@
         <v>119</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.35506511836787058</v>
+        <v>0.66840315647655102</v>
       </c>
       <c r="O4" t="s">
         <v>130</v>
@@ -1859,10 +1859,10 @@
         <v>119</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.6684031564765508</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O5" t="s">
         <v>130</v>
@@ -1894,10 +1894,10 @@
         <v>119</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.17653172515557836</v>
+        <v>0.35506511836787075</v>
       </c>
       <c r="O6" t="s">
         <v>130</v>
@@ -2455,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86657E5F-254B-425A-9EEA-F9FF3E28F6A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AE4FCE-FAB4-4E53-AC64-AF1E0137E246}">
   <dimension ref="B2:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
